--- a/database/main tables.xlsx
+++ b/database/main tables.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="56">
   <si>
     <t>email</t>
   </si>
@@ -31,9 +31,6 @@
     <t>last_name</t>
   </si>
   <si>
-    <t>age?</t>
-  </si>
-  <si>
     <t>vk?</t>
   </si>
   <si>
@@ -127,9 +124,6 @@
     <t>Users' subjects</t>
   </si>
   <si>
-    <t>data?</t>
-  </si>
-  <si>
     <t>DATA</t>
   </si>
   <si>
@@ -179,6 +173,21 @@
   </si>
   <si>
     <t>photo/icon</t>
+  </si>
+  <si>
+    <t>gender</t>
+  </si>
+  <si>
+    <t>TINYINT</t>
+  </si>
+  <si>
+    <t>1 for male, 2 for female, 0 for undefined</t>
+  </si>
+  <si>
+    <t>create_date?</t>
+  </si>
+  <si>
+    <t>DATETIME</t>
   </si>
 </sst>
 </file>
@@ -269,17 +278,17 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="4" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -575,8 +584,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G60"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -593,53 +602,53 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>22</v>
-      </c>
     </row>
     <row r="3" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A3" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="B3" s="6"/>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="6"/>
+      <c r="A3" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="B3" s="9"/>
+      <c r="C3" s="9"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="9"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="1" t="s">
-        <v>6</v>
-      </c>
       <c r="E4" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -647,16 +656,16 @@
         <v>1</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C5" s="1">
         <v>20</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -664,16 +673,16 @@
         <v>2</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C6" s="1">
         <v>30</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -681,333 +690,336 @@
         <v>0</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C7" s="1">
         <v>50</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A9" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="B9" s="6"/>
-      <c r="C9" s="6"/>
-      <c r="D9" s="6"/>
-      <c r="E9" s="6"/>
-      <c r="F9" s="6"/>
-      <c r="G9" s="6"/>
-    </row>
-    <row r="10" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A10" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="B10" s="8"/>
-      <c r="C10" s="8"/>
-      <c r="D10" s="8"/>
-      <c r="E10" s="8"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="8"/>
-    </row>
-    <row r="11" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A11" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G11" s="8"/>
+        <v>46</v>
+      </c>
+      <c r="B10" s="9"/>
+      <c r="C10" s="9"/>
+      <c r="D10" s="9"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="9"/>
+      <c r="G10" s="9"/>
+    </row>
+    <row r="11" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" s="6"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="6"/>
     </row>
     <row r="12" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="D12" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E12" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="G12" s="8"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="4" t="s">
+      <c r="G12" s="6"/>
+    </row>
+    <row r="13" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="E13" s="1">
+      <c r="B13" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="G13" s="6"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="E14" s="1">
         <v>1</v>
       </c>
-      <c r="G13" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C14" s="1">
-        <v>3</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>9</v>
+      <c r="G14" s="1" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C15" s="1">
         <v>50</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>35</v>
+        <v>54</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>36</v>
+        <v>55</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A18" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="B18" s="6"/>
-      <c r="C18" s="6"/>
-      <c r="D18" s="6"/>
-      <c r="E18" s="6"/>
-      <c r="F18" s="6"/>
-      <c r="G18" s="6"/>
+      <c r="A18" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="B18" s="9"/>
+      <c r="C18" s="9"/>
+      <c r="D18" s="9"/>
+      <c r="E18" s="9"/>
+      <c r="F18" s="9"/>
+      <c r="G18" s="9"/>
     </row>
     <row r="19" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="G19" s="8"/>
+      <c r="A19" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G19" s="6"/>
     </row>
     <row r="20" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="10" t="s">
+      <c r="A20" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="G20" s="8"/>
+      <c r="G20" s="6"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C21" s="1">
         <v>30</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C22" s="1">
         <v>25</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A24" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="B24" s="7"/>
-      <c r="C24" s="7"/>
-      <c r="D24" s="7"/>
-      <c r="E24" s="7"/>
-      <c r="F24" s="7"/>
-      <c r="G24" s="7"/>
+      <c r="A24" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" s="10"/>
+      <c r="C24" s="10"/>
+      <c r="D24" s="10"/>
+      <c r="E24" s="10"/>
+      <c r="F24" s="10"/>
+      <c r="G24" s="10"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B25" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D25" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D25" s="1" t="s">
-        <v>6</v>
-      </c>
       <c r="E25" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C26" s="1">
         <v>40</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="28" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A28" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="B28" s="6"/>
-      <c r="C28" s="6"/>
-      <c r="D28" s="6"/>
-      <c r="E28" s="6"/>
-      <c r="F28" s="6"/>
-      <c r="G28" s="6"/>
+      <c r="A28" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="B28" s="9"/>
+      <c r="C28" s="9"/>
+      <c r="D28" s="9"/>
+      <c r="E28" s="9"/>
+      <c r="F28" s="9"/>
+      <c r="G28" s="9"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B29" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D29" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D29" s="1" t="s">
-        <v>6</v>
-      </c>
       <c r="E29" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G29" s="3"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C30" s="1">
         <v>40</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="32" spans="1:7" ht="20.399999999999999" x14ac:dyDescent="0.35">
       <c r="G32" s="5"/>
     </row>
     <row r="33" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A33" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="B33" s="6"/>
-      <c r="C33" s="6"/>
-      <c r="D33" s="6"/>
-      <c r="E33" s="6"/>
-      <c r="F33" s="6"/>
-      <c r="G33" s="6"/>
+      <c r="A33" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="B33" s="9"/>
+      <c r="C33" s="9"/>
+      <c r="D33" s="9"/>
+      <c r="E33" s="9"/>
+      <c r="F33" s="9"/>
+      <c r="G33" s="9"/>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B34" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D34" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D34" s="1" t="s">
-        <v>6</v>
-      </c>
       <c r="E34" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C35" s="1">
         <v>40</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="37" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -1019,170 +1031,170 @@
       <c r="G38" s="5"/>
     </row>
     <row r="39" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A39" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="B39" s="6"/>
-      <c r="C39" s="6"/>
-      <c r="D39" s="6"/>
-      <c r="E39" s="6"/>
-      <c r="F39" s="6"/>
-      <c r="G39" s="6"/>
+      <c r="A39" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="B39" s="9"/>
+      <c r="C39" s="9"/>
+      <c r="D39" s="9"/>
+      <c r="E39" s="9"/>
+      <c r="F39" s="9"/>
+      <c r="G39" s="9"/>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B40" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D40" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D40" s="1" t="s">
-        <v>6</v>
-      </c>
       <c r="E40" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C41" s="1">
         <v>30</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="44" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A44" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="B44" s="6"/>
-      <c r="C44" s="6"/>
-      <c r="D44" s="6"/>
-      <c r="E44" s="6"/>
-      <c r="F44" s="6"/>
-      <c r="G44" s="6"/>
+      <c r="A44" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="B44" s="9"/>
+      <c r="C44" s="9"/>
+      <c r="D44" s="9"/>
+      <c r="E44" s="9"/>
+      <c r="F44" s="9"/>
+      <c r="G44" s="9"/>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C47" s="1">
         <v>3</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="50" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="B50" s="6"/>
-      <c r="C50" s="6"/>
-      <c r="D50" s="6"/>
-      <c r="E50" s="6"/>
-      <c r="F50" s="6"/>
-      <c r="G50" s="6"/>
+      <c r="A50" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="B50" s="9"/>
+      <c r="C50" s="9"/>
+      <c r="D50" s="9"/>
+      <c r="E50" s="9"/>
+      <c r="F50" s="9"/>
+      <c r="G50" s="9"/>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B51" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D51" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D51" s="1" t="s">
-        <v>6</v>
-      </c>
       <c r="E51" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C52" s="1">
         <v>20</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B53" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E53" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F53" s="1" t="s">
         <v>39</v>
-      </c>
-      <c r="D53" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E53" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F53" s="1" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
@@ -1193,15 +1205,15 @@
     </row>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="A3:G3"/>
+    <mergeCell ref="A18:G18"/>
     <mergeCell ref="A44:G44"/>
     <mergeCell ref="A50:G50"/>
-    <mergeCell ref="A9:G9"/>
+    <mergeCell ref="A10:G10"/>
     <mergeCell ref="A24:G24"/>
     <mergeCell ref="A28:G28"/>
     <mergeCell ref="A33:G33"/>
     <mergeCell ref="A39:G39"/>
-    <mergeCell ref="A3:G3"/>
-    <mergeCell ref="A18:G18"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
